--- a/data/trans_camb/P25A_6_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_6_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,01</t>
+          <t>0,5; 4,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,51</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,33</t>
+          <t>0,57; 5,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,85</t>
+          <t>-3,32; 0,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,17</t>
+          <t>-3,05; 0,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,16</t>
+          <t>-1,43; 4,96</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 2,01</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 1,46</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 3,92</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,77%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,7%</t>
+          <t>-72,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>-66,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>84,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>213,69%</t>
         </is>
       </c>
     </row>
@@ -720,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,07; 492,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,17 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 530,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,34; 162,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,71; 167,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 1068,63</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-38,77; 1557,1</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 4,09</t>
+          <t>-1,3; 5,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 6,78</t>
+          <t>-1,2; 11,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,59</t>
+          <t>-1,2; 11,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 6,94</t>
+          <t>-4,46; 2,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,0</t>
+          <t>-5,22; 1,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,57</t>
+          <t>-2,8; 6,81</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 2,81</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 4,25</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 5,72</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>120,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>109,9%</t>
+          <t>182,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,42%</t>
+          <t>169,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>-67,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>37,9%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74,17%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 865,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,41; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,46; 185,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,0; 744,56</t>
+          <t>-100,0; 388,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 194,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 409,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-72,29; 276,5</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-82,99; 537,39</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-60,11; 526,51</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 6,11</t>
+          <t>-15,81; 7,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,22; -1,28</t>
+          <t>-20,95; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 6,56</t>
+          <t>-10,26; 20,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 4,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -0,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 3,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; 0,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 10,35</t>
         </is>
       </c>
     </row>
@@ -989,7 +1170,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>-18,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-80,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-20,71%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
         </is>
       </c>
     </row>
@@ -1047,10 +1243,25 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-89,6; 443,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,23</t>
+          <t>-0,48; 3,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,23</t>
+          <t>-0,73; 4,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,96</t>
+          <t>-0,07; 5,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,25</t>
+          <t>-2,54; 0,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,09</t>
+          <t>-2,97; 0,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,65</t>
+          <t>-0,96; 3,68</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 1,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 1,61</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 3,7</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>142,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>110,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>210,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>-46,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>-67,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>52,69%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-8,31%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>103,01%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 194,65</t>
+          <t>-53,68; 920,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 217,51</t>
+          <t>-82,4; 1906,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,11; 98,98</t>
+          <t>-48,66; 1647,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,18; 251,77</t>
+          <t>-90,92; 126,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 87,72</t>
+          <t>-100,0; 107,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 133,87</t>
+          <t>-47,73; 420,86</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-59,05; 198,76</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-72,31; 222,32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; 424,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
